--- a/Experiments/UNIFACParams.xlsx
+++ b/Experiments/UNIFACParams.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsmid\Documents\StellenboschUniversity\Masters\Code\MatlabGit\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsmid\Documents\StellenboschUniversity\Masters\Code\ClapeyronTrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C6AED-BA65-4924-AE9A-2B55D08824A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B1F588-2D0E-4280-8B3D-0A8F5BE9CDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6795B874-1CC7-487F-A767-517BD140E235}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{6795B874-1CC7-487F-A767-517BD140E235}"/>
   </bookViews>
   <sheets>
     <sheet name="EParams" sheetId="1" r:id="rId1"/>
     <sheet name="RQParams" sheetId="6" r:id="rId2"/>
     <sheet name="Groups" sheetId="7" r:id="rId3"/>
-    <sheet name="RQParamsAll" sheetId="2" r:id="rId4"/>
-    <sheet name="calculationgroups" sheetId="5" r:id="rId5"/>
-    <sheet name="group names" sheetId="3" r:id="rId6"/>
-    <sheet name="ref" sheetId="4" r:id="rId7"/>
+    <sheet name="compounds" sheetId="9" r:id="rId4"/>
+    <sheet name="calcs example" sheetId="8" r:id="rId5"/>
+    <sheet name="RQParamsAll" sheetId="2" r:id="rId6"/>
+    <sheet name="calculationgroups" sheetId="5" r:id="rId7"/>
+    <sheet name="group names" sheetId="3" r:id="rId8"/>
+    <sheet name="ref" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="414">
   <si>
     <t>i</t>
   </si>
@@ -933,13 +935,364 @@
   </si>
   <si>
     <t>Functionalgroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculations hexane + hexanol equimolar </t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compound 1 - hexane </t>
+  </si>
+  <si>
+    <t>group (k)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compound 2  - hexanol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X pure </t>
+  </si>
+  <si>
+    <t>theta p</t>
+  </si>
+  <si>
+    <t>X mix</t>
+  </si>
+  <si>
+    <t>theta mix</t>
+  </si>
+  <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">propane </t>
+  </si>
+  <si>
+    <t>butane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pentane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hexane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heptane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">octane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decane </t>
+  </si>
+  <si>
+    <t>dodecane</t>
+  </si>
+  <si>
+    <t>1propanol</t>
+  </si>
+  <si>
+    <t>1butanol</t>
+  </si>
+  <si>
+    <t>1pentanol</t>
+  </si>
+  <si>
+    <t>1hexanol</t>
+  </si>
+  <si>
+    <t>1heptanol</t>
+  </si>
+  <si>
+    <t>1octanol</t>
+  </si>
+  <si>
+    <t>1nonanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1decanol </t>
+  </si>
+  <si>
+    <t>cyclopentane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclohexane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycloheptane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclooctane </t>
+  </si>
+  <si>
+    <t>benzene</t>
+  </si>
+  <si>
+    <t>propanone</t>
+  </si>
+  <si>
+    <t>butanone</t>
+  </si>
+  <si>
+    <t>2pentanone</t>
+  </si>
+  <si>
+    <t>2hexanone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2heptanone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2octanone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">methanoic acid </t>
+  </si>
+  <si>
+    <t>ethanoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propanoic acid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">butanoic acid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pentanoic acid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hexanoic acid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heptanoic acid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">octanoic acid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonanoic acid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decanoic acid </t>
+  </si>
+  <si>
+    <t>ethanal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propanal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">butanal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pentanal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hexanal </t>
+  </si>
+  <si>
+    <t>heptanal</t>
+  </si>
+  <si>
+    <t>octanal</t>
+  </si>
+  <si>
+    <t>nonanal</t>
+  </si>
+  <si>
+    <t>decanal</t>
+  </si>
+  <si>
+    <t>3Pentanone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3hexanone </t>
+  </si>
+  <si>
+    <t>3heptanone</t>
+  </si>
+  <si>
+    <t>3octanone</t>
+  </si>
+  <si>
+    <t>propene</t>
+  </si>
+  <si>
+    <t>1butene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1pentene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1hexene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1heptene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1octene </t>
+  </si>
+  <si>
+    <t>1nonene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1decene </t>
+  </si>
+  <si>
+    <t>aniline</t>
+  </si>
+  <si>
+    <t>benzylamine</t>
+  </si>
+  <si>
+    <t>propylamine</t>
+  </si>
+  <si>
+    <t>butylamine</t>
+  </si>
+  <si>
+    <t>pentylamine</t>
+  </si>
+  <si>
+    <t>hexylamine</t>
+  </si>
+  <si>
+    <t>heptylamine</t>
+  </si>
+  <si>
+    <t>octylamine</t>
+  </si>
+  <si>
+    <t>nonylamine</t>
+  </si>
+  <si>
+    <t>decylamine</t>
+  </si>
+  <si>
+    <t>2propanol</t>
+  </si>
+  <si>
+    <t>2butanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2pentanol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2hexanol </t>
+  </si>
+  <si>
+    <t>2heptanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2octanol </t>
+  </si>
+  <si>
+    <t>2nonanol</t>
+  </si>
+  <si>
+    <t>isobutanol</t>
+  </si>
+  <si>
+    <t>tertbutylalchol</t>
+  </si>
+  <si>
+    <t>methyl formate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methyl acetate </t>
+  </si>
+  <si>
+    <t>methyl propionate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methyl butyrate </t>
+  </si>
+  <si>
+    <t>methyl benzoate</t>
+  </si>
+  <si>
+    <t>ethyl benzoate</t>
+  </si>
+  <si>
+    <t>ethyl methanoate</t>
+  </si>
+  <si>
+    <t>ethyl ethanoate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethyl propionate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethyl butyrate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethyl pentanoate </t>
+  </si>
+  <si>
+    <t>ethyl hexanoate</t>
+  </si>
+  <si>
+    <t>ethyl heptanoate</t>
+  </si>
+  <si>
+    <t>ethyl octanoate</t>
+  </si>
+  <si>
+    <t>propyl formate</t>
+  </si>
+  <si>
+    <t>propyl acetate</t>
+  </si>
+  <si>
+    <t>propyl butanoate</t>
+  </si>
+  <si>
+    <t>butyl formate</t>
+  </si>
+  <si>
+    <t>butyl acetate</t>
+  </si>
+  <si>
+    <t>butyl butyrate</t>
+  </si>
+  <si>
+    <t>pentyl acetate</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>propyl propionate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +1320,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -982,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1019,11 +1378,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1051,6 +1436,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A2944C-B7B5-4FBF-9725-2D557A6E738D}">
   <dimension ref="A1:H757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19991,15 +20379,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EB434B-FCE5-46C3-880A-8270F104DE58}">
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>296</v>
       </c>
@@ -20025,49 +20413,55 @@
         <v>20</v>
       </c>
       <c r="I1" s="9">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9">
+        <v>19</v>
+      </c>
+      <c r="K1" s="9">
         <v>77</v>
       </c>
-      <c r="J1" s="9">
+      <c r="L1" s="9">
         <v>9</v>
       </c>
-      <c r="K1" s="9">
+      <c r="M1" s="9">
         <v>11</v>
       </c>
-      <c r="L1" s="9">
+      <c r="N1" s="9">
         <v>12</v>
       </c>
-      <c r="M1" s="9">
+      <c r="O1" s="9">
         <v>14</v>
       </c>
-      <c r="N1" s="9">
+      <c r="P1" s="9">
         <v>15</v>
       </c>
-      <c r="O1" s="9">
+      <c r="Q1" s="9">
         <v>81</v>
       </c>
-      <c r="P1" s="9">
+      <c r="R1" s="9">
         <v>82</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="S1" s="9">
         <v>85</v>
       </c>
-      <c r="R1" s="9">
+      <c r="T1" s="9">
         <v>28</v>
       </c>
-      <c r="S1" s="9">
+      <c r="U1" s="9">
         <v>31</v>
       </c>
-      <c r="T1" s="9">
+      <c r="V1" s="9">
         <v>36</v>
       </c>
-      <c r="U1" s="9">
+      <c r="W1" s="9">
         <v>42</v>
       </c>
-      <c r="V1" s="9">
+      <c r="X1" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>279</v>
       </c>
@@ -20078,7 +20472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>279</v>
       </c>
@@ -20089,7 +20483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>272</v>
       </c>
@@ -20103,7 +20497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>272</v>
       </c>
@@ -20117,7 +20511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>272</v>
       </c>
@@ -20131,7 +20525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>272</v>
       </c>
@@ -20145,7 +20539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>272</v>
       </c>
@@ -20159,7 +20553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>272</v>
       </c>
@@ -20173,7 +20567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>272</v>
       </c>
@@ -20187,7 +20581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>272</v>
       </c>
@@ -20201,7 +20595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>272</v>
       </c>
@@ -20215,18 +20609,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>258</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>258</v>
       </c>
@@ -20236,11 +20630,14 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>258</v>
       </c>
@@ -20248,13 +20645,16 @@
         <v>3</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>258</v>
       </c>
@@ -20262,13 +20662,16 @@
         <v>4</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>258</v>
       </c>
@@ -20276,13 +20679,16 @@
         <v>5</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>258</v>
       </c>
@@ -20290,13 +20696,16 @@
         <v>6</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>258</v>
       </c>
@@ -20304,13 +20713,16 @@
         <v>7</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>6</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>258</v>
       </c>
@@ -20318,13 +20730,16 @@
         <v>8</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>7</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>258</v>
       </c>
@@ -20332,13 +20747,16 @@
         <v>9</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>8</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>258</v>
       </c>
@@ -20346,99 +20764,96 @@
         <v>10</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>9</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>257</v>
       </c>
       <c r="B23" s="12">
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>257</v>
       </c>
       <c r="B24" s="12">
         <v>6</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>257</v>
       </c>
       <c r="B25" s="12">
         <v>7</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>257</v>
       </c>
       <c r="B26" s="12">
         <v>8</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>256</v>
       </c>
       <c r="B27" s="12">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>5</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>255</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>254</v>
       </c>
       <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
       <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>254</v>
       </c>
@@ -20449,13 +20864,13 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>254</v>
       </c>
@@ -20466,13 +20881,13 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>254</v>
       </c>
@@ -20483,13 +20898,13 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>254</v>
       </c>
@@ -20500,13 +20915,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>254</v>
       </c>
@@ -20517,24 +20932,24 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>253</v>
       </c>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>253</v>
       </c>
@@ -20544,11 +20959,11 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>253</v>
       </c>
@@ -20561,11 +20976,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>253</v>
       </c>
@@ -20578,11 +20993,11 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>253</v>
       </c>
@@ -20595,11 +21010,11 @@
       <c r="D39">
         <v>3</v>
       </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>253</v>
       </c>
@@ -20612,11 +21027,11 @@
       <c r="D40">
         <v>4</v>
       </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>253</v>
       </c>
@@ -20629,11 +21044,11 @@
       <c r="D41">
         <v>5</v>
       </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>253</v>
       </c>
@@ -20646,11 +21061,11 @@
       <c r="D42">
         <v>6</v>
       </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>253</v>
       </c>
@@ -20663,11 +21078,11 @@
       <c r="D43">
         <v>7</v>
       </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>253</v>
       </c>
@@ -20680,11 +21095,11 @@
       <c r="D44">
         <v>8</v>
       </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>252</v>
       </c>
@@ -20698,7 +21113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>252</v>
       </c>
@@ -20715,7 +21130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>252</v>
       </c>
@@ -20732,7 +21147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>252</v>
       </c>
@@ -20749,7 +21164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>252</v>
       </c>
@@ -20766,7 +21181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>252</v>
       </c>
@@ -20783,7 +21198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>252</v>
       </c>
@@ -20800,7 +21215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>252</v>
       </c>
@@ -20817,7 +21232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>252</v>
       </c>
@@ -20834,7 +21249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>251</v>
       </c>
@@ -20847,11 +21262,11 @@
       <c r="D54">
         <v>3</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>251</v>
       </c>
@@ -20864,11 +21279,11 @@
       <c r="D55">
         <v>4</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>251</v>
       </c>
@@ -20881,11 +21296,11 @@
       <c r="D56">
         <v>5</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>251</v>
       </c>
@@ -20898,11 +21313,11 @@
       <c r="D57">
         <v>6</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>250</v>
       </c>
@@ -20913,7 +21328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>250</v>
       </c>
@@ -20927,7 +21342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>250</v>
       </c>
@@ -20941,7 +21356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>250</v>
       </c>
@@ -20955,7 +21370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>250</v>
       </c>
@@ -20969,7 +21384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>250</v>
       </c>
@@ -20983,7 +21398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>250</v>
       </c>
@@ -20997,7 +21412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>250</v>
       </c>
@@ -21011,7 +21426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>250</v>
       </c>
@@ -21025,38 +21440,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>249</v>
       </c>
       <c r="B67" s="12">
         <v>0</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>5</v>
       </c>
-      <c r="R67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>248</v>
       </c>
       <c r="B68" s="12">
         <v>1</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>5</v>
       </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>247</v>
       </c>
@@ -21069,11 +21484,11 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>247</v>
       </c>
@@ -21086,11 +21501,11 @@
       <c r="D70">
         <v>2</v>
       </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>247</v>
       </c>
@@ -21103,11 +21518,11 @@
       <c r="D71">
         <v>3</v>
       </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>247</v>
       </c>
@@ -21120,11 +21535,11 @@
       <c r="D72">
         <v>4</v>
       </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>247</v>
       </c>
@@ -21137,11 +21552,11 @@
       <c r="D73">
         <v>5</v>
       </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>247</v>
       </c>
@@ -21154,11 +21569,11 @@
       <c r="D74">
         <v>6</v>
       </c>
-      <c r="Q74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>247</v>
       </c>
@@ -21171,11 +21586,11 @@
       <c r="D75">
         <v>7</v>
       </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>247</v>
       </c>
@@ -21188,11 +21603,11 @@
       <c r="D76">
         <v>8</v>
       </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>246</v>
       </c>
@@ -21202,11 +21617,11 @@
       <c r="C77">
         <v>2</v>
       </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>246</v>
       </c>
@@ -21219,11 +21634,11 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>246</v>
       </c>
@@ -21236,11 +21651,11 @@
       <c r="D79">
         <v>2</v>
       </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>246</v>
       </c>
@@ -21253,11 +21668,11 @@
       <c r="D80">
         <v>3</v>
       </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>246</v>
       </c>
@@ -21270,11 +21685,11 @@
       <c r="D81">
         <v>4</v>
       </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>246</v>
       </c>
@@ -21287,11 +21702,11 @@
       <c r="D82">
         <v>5</v>
       </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>246</v>
       </c>
@@ -21304,11 +21719,11 @@
       <c r="D83">
         <v>6</v>
       </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>245</v>
       </c>
@@ -21321,11 +21736,11 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>244</v>
       </c>
@@ -21335,11 +21750,11 @@
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>243</v>
       </c>
@@ -21349,11 +21764,11 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>243</v>
       </c>
@@ -21363,11 +21778,11 @@
       <c r="C87">
         <v>2</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>243</v>
       </c>
@@ -21380,11 +21795,11 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>243</v>
       </c>
@@ -21397,11 +21812,11 @@
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>242</v>
       </c>
@@ -21411,17 +21826,17 @@
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
         <v>5</v>
       </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>242</v>
       </c>
@@ -21434,17 +21849,17 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
         <v>5</v>
       </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>241</v>
       </c>
@@ -21457,11 +21872,11 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>241</v>
       </c>
@@ -21474,11 +21889,11 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>241</v>
       </c>
@@ -21491,11 +21906,11 @@
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>241</v>
       </c>
@@ -21508,11 +21923,11 @@
       <c r="D95">
         <v>3</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>240</v>
       </c>
@@ -21525,11 +21940,11 @@
       <c r="D96">
         <v>4</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>240</v>
       </c>
@@ -21542,11 +21957,11 @@
       <c r="D97">
         <v>5</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>240</v>
       </c>
@@ -21559,11 +21974,11 @@
       <c r="D98">
         <v>6</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>240</v>
       </c>
@@ -21576,11 +21991,11 @@
       <c r="D99">
         <v>7</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>239</v>
       </c>
@@ -21593,11 +22008,11 @@
       <c r="D100">
         <v>8</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>239</v>
       </c>
@@ -21610,11 +22025,11 @@
       <c r="D101">
         <v>9</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>239</v>
       </c>
@@ -21627,11 +22042,11 @@
       <c r="D102">
         <v>10</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>238</v>
       </c>
@@ -21644,7 +22059,7 @@
       <c r="D103">
         <v>11</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>1</v>
       </c>
     </row>
@@ -21654,11 +22069,1350 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4521AB-BAF1-4BFD-A7FA-6CE56F166F76}">
+  <dimension ref="A1:C106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>247</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>243</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>241</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>241</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>240</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>240</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>239</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>238</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E1ADEE-F516-4621-9B8E-40D905321196}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>8.3140000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12">
+        <f>B10*$B$3/(SUM($B$10:$D$10)*$B$3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12">
+        <f>C10*$B$3/(SUM($B$10:$D$10)*$B$3)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12">
+        <f>D10*$B$3/(SUM($B$10:$D$10)*$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B791E8F6-A81D-492C-93D6-9443BD56C8C3}">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24188,12 +25942,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D419F3C6-3191-4D3C-96C1-2331E1930E3D}">
   <dimension ref="A1:AE104"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AE104"/>
+    <sheetView topLeftCell="D84" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24435,11 +26189,11 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <f>J5+$E$4</f>
+        <f t="shared" ref="J6:J12" si="0">J5+$E$4</f>
         <v>2.5299999999999998</v>
       </c>
       <c r="K6">
-        <f>K5+$F$4</f>
+        <f t="shared" ref="K6:K12" si="1">K5+$F$4</f>
         <v>3.5377999999999998</v>
       </c>
       <c r="L6">
@@ -24475,11 +26229,11 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <f>J6+$E$4</f>
+        <f t="shared" si="0"/>
         <v>3.1624999999999996</v>
       </c>
       <c r="K7">
-        <f>K6+$F$4</f>
+        <f t="shared" si="1"/>
         <v>4.2458999999999998</v>
       </c>
       <c r="L7">
@@ -24515,11 +26269,11 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <f>J7+$E$4</f>
+        <f t="shared" si="0"/>
         <v>3.7949999999999995</v>
       </c>
       <c r="K8">
-        <f>K7+$F$4</f>
+        <f t="shared" si="1"/>
         <v>4.9539999999999997</v>
       </c>
       <c r="L8">
@@ -24555,11 +26309,11 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <f>J8+$E$4</f>
+        <f t="shared" si="0"/>
         <v>4.4274999999999993</v>
       </c>
       <c r="K9">
-        <f>K8+$F$4</f>
+        <f t="shared" si="1"/>
         <v>5.6620999999999997</v>
       </c>
       <c r="L9">
@@ -24595,11 +26349,11 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <f>J9+$E$4</f>
+        <f t="shared" si="0"/>
         <v>5.0599999999999996</v>
       </c>
       <c r="K10">
-        <f>K9+$F$4</f>
+        <f t="shared" si="1"/>
         <v>6.3701999999999996</v>
       </c>
       <c r="L10">
@@ -24635,11 +26389,11 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <f>J10+$E$4</f>
+        <f t="shared" si="0"/>
         <v>5.6924999999999999</v>
       </c>
       <c r="K11">
-        <f>K10+$F$4</f>
+        <f t="shared" si="1"/>
         <v>7.0782999999999996</v>
       </c>
       <c r="L11">
@@ -24675,11 +26429,11 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f>J11+$E$4</f>
+        <f t="shared" si="0"/>
         <v>6.3250000000000002</v>
       </c>
       <c r="K12">
-        <f>K11+$F$4</f>
+        <f t="shared" si="1"/>
         <v>7.7863999999999995</v>
       </c>
       <c r="L12">
@@ -24832,11 +26586,11 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <f>J15+$E$4</f>
+        <f t="shared" ref="J16:J23" si="2">J15+$E$4</f>
         <v>2.4951999999999996</v>
       </c>
       <c r="K16">
-        <f>K15+$F$4</f>
+        <f t="shared" ref="K16:K23" si="3">K15+$F$4</f>
         <v>2.6616</v>
       </c>
       <c r="L16">
@@ -24872,11 +26626,11 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <f>J16+$E$4</f>
+        <f t="shared" si="2"/>
         <v>3.1276999999999995</v>
       </c>
       <c r="K17">
-        <f>K16+$F$4</f>
+        <f t="shared" si="3"/>
         <v>3.3696999999999999</v>
       </c>
       <c r="L17">
@@ -24912,11 +26666,11 @@
         <v>5</v>
       </c>
       <c r="J18">
-        <f>J17+$E$4</f>
+        <f t="shared" si="2"/>
         <v>3.7601999999999993</v>
       </c>
       <c r="K18">
-        <f>K17+$F$4</f>
+        <f t="shared" si="3"/>
         <v>4.0777999999999999</v>
       </c>
       <c r="L18">
@@ -24952,11 +26706,11 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <f>J18+$E$4</f>
+        <f t="shared" si="2"/>
         <v>4.3926999999999996</v>
       </c>
       <c r="K19">
-        <f>K18+$F$4</f>
+        <f t="shared" si="3"/>
         <v>4.7858999999999998</v>
       </c>
       <c r="L19">
@@ -24992,11 +26746,11 @@
         <v>7</v>
       </c>
       <c r="J20">
-        <f>J19+$E$4</f>
+        <f t="shared" si="2"/>
         <v>5.0251999999999999</v>
       </c>
       <c r="K20">
-        <f>K19+$F$4</f>
+        <f t="shared" si="3"/>
         <v>5.4939999999999998</v>
       </c>
       <c r="L20">
@@ -25032,11 +26786,11 @@
         <v>8</v>
       </c>
       <c r="J21">
-        <f>J20+$E$4</f>
+        <f t="shared" si="2"/>
         <v>5.6577000000000002</v>
       </c>
       <c r="K21">
-        <f>K20+$F$4</f>
+        <f t="shared" si="3"/>
         <v>6.2020999999999997</v>
       </c>
       <c r="L21">
@@ -25072,11 +26826,11 @@
         <v>9</v>
       </c>
       <c r="J22">
-        <f>J21+$E$4</f>
+        <f t="shared" si="2"/>
         <v>6.2902000000000005</v>
       </c>
       <c r="K22">
-        <f>K21+$F$4</f>
+        <f t="shared" si="3"/>
         <v>6.9101999999999997</v>
       </c>
       <c r="L22">
@@ -25094,11 +26848,11 @@
         <v>10</v>
       </c>
       <c r="J23">
-        <f>J22+$E$4</f>
+        <f t="shared" si="2"/>
         <v>6.9227000000000007</v>
       </c>
       <c r="K23">
-        <f>K22+$F$4</f>
+        <f t="shared" si="3"/>
         <v>7.6182999999999996</v>
       </c>
       <c r="L23">
@@ -25135,11 +26889,11 @@
         <v>6</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:K25" si="0">I25*$E$12</f>
+        <f t="shared" ref="J25:K25" si="4">I25*$E$12</f>
         <v>5.46</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.9686000000000003</v>
       </c>
       <c r="U25">
@@ -25154,11 +26908,11 @@
         <v>7</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:K26" si="1">I26*$E$12</f>
+        <f t="shared" ref="J26:K26" si="5">I26*$E$12</f>
         <v>6.37</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.7967000000000004</v>
       </c>
       <c r="U26">
@@ -25180,7 +26934,7 @@
         <v>7.28</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="J27:K27" si="2">J27*$E$12</f>
+        <f t="shared" ref="K27" si="6">J27*$E$12</f>
         <v>6.6248000000000005</v>
       </c>
       <c r="U27">
@@ -25427,11 +27181,11 @@
         <v>3</v>
       </c>
       <c r="J38">
-        <f>J37+$E$4</f>
+        <f t="shared" ref="J38:J45" si="7">J37+$E$4</f>
         <v>2.0649999999999999</v>
       </c>
       <c r="K38">
-        <f>K37+$F$4</f>
+        <f t="shared" ref="K38:K45" si="8">K37+$F$4</f>
         <v>2.6903999999999999</v>
       </c>
       <c r="L38">
@@ -25452,11 +27206,11 @@
         <v>4</v>
       </c>
       <c r="J39">
-        <f>J38+$E$4</f>
+        <f t="shared" si="7"/>
         <v>2.6974999999999998</v>
       </c>
       <c r="K39">
-        <f>K38+$F$4</f>
+        <f t="shared" si="8"/>
         <v>3.3984999999999999</v>
       </c>
       <c r="L39">
@@ -25477,11 +27231,11 @@
         <v>5</v>
       </c>
       <c r="J40">
-        <f>J39+$E$4</f>
+        <f t="shared" si="7"/>
         <v>3.3299999999999996</v>
       </c>
       <c r="K40">
-        <f>K39+$F$4</f>
+        <f t="shared" si="8"/>
         <v>4.1066000000000003</v>
       </c>
       <c r="L40">
@@ -25502,11 +27256,11 @@
         <v>6</v>
       </c>
       <c r="J41">
-        <f>J40+$E$4</f>
+        <f t="shared" si="7"/>
         <v>3.9624999999999995</v>
       </c>
       <c r="K41">
-        <f>K40+$F$4</f>
+        <f t="shared" si="8"/>
         <v>4.8147000000000002</v>
       </c>
       <c r="L41">
@@ -25527,11 +27281,11 @@
         <v>7</v>
       </c>
       <c r="J42">
-        <f>J41+$E$4</f>
+        <f t="shared" si="7"/>
         <v>4.5949999999999998</v>
       </c>
       <c r="K42">
-        <f>K41+$F$4</f>
+        <f t="shared" si="8"/>
         <v>5.5228000000000002</v>
       </c>
       <c r="L42">
@@ -25552,11 +27306,11 @@
         <v>8</v>
       </c>
       <c r="J43">
-        <f>J42+$E$4</f>
+        <f t="shared" si="7"/>
         <v>5.2275</v>
       </c>
       <c r="K43">
-        <f>K42+$F$4</f>
+        <f t="shared" si="8"/>
         <v>6.2309000000000001</v>
       </c>
       <c r="L43">
@@ -25577,11 +27331,11 @@
         <v>9</v>
       </c>
       <c r="J44">
-        <f>J43+$E$4</f>
+        <f t="shared" si="7"/>
         <v>5.86</v>
       </c>
       <c r="K44">
-        <f>K43+$F$4</f>
+        <f t="shared" si="8"/>
         <v>6.9390000000000001</v>
       </c>
       <c r="L44">
@@ -25602,11 +27356,11 @@
         <v>10</v>
       </c>
       <c r="J45">
-        <f>J44+$E$4</f>
+        <f t="shared" si="7"/>
         <v>6.4925000000000006</v>
       </c>
       <c r="K45">
-        <f>K44+$F$4</f>
+        <f t="shared" si="8"/>
         <v>7.6471</v>
       </c>
       <c r="L45">
@@ -25649,11 +27403,11 @@
         <v>3</v>
       </c>
       <c r="J47">
-        <f>J46+$E$4</f>
+        <f t="shared" ref="J47:J54" si="9">J46+$E$4</f>
         <v>1.9823</v>
       </c>
       <c r="K47">
-        <f>K46+$F$4</f>
+        <f t="shared" ref="K47:K54" si="10">K46+$F$4</f>
         <v>2.5398999999999998</v>
       </c>
       <c r="L47">
@@ -25674,11 +27428,11 @@
         <v>4</v>
       </c>
       <c r="J48">
-        <f>J47+$E$4</f>
+        <f t="shared" si="9"/>
         <v>2.6147999999999998</v>
       </c>
       <c r="K48">
-        <f>K47+$F$4</f>
+        <f t="shared" si="10"/>
         <v>3.2479999999999998</v>
       </c>
       <c r="L48">
@@ -25699,11 +27453,11 @@
         <v>5</v>
       </c>
       <c r="J49">
-        <f>J48+$E$4</f>
+        <f t="shared" si="9"/>
         <v>3.2472999999999996</v>
       </c>
       <c r="K49">
-        <f>K48+$F$4</f>
+        <f t="shared" si="10"/>
         <v>3.9560999999999997</v>
       </c>
       <c r="L49">
@@ -25724,11 +27478,11 @@
         <v>6</v>
       </c>
       <c r="J50">
-        <f>J49+$E$4</f>
+        <f t="shared" si="9"/>
         <v>3.8797999999999995</v>
       </c>
       <c r="K50">
-        <f>K49+$F$4</f>
+        <f t="shared" si="10"/>
         <v>4.6641999999999992</v>
       </c>
       <c r="L50">
@@ -25749,11 +27503,11 @@
         <v>7</v>
       </c>
       <c r="J51">
-        <f>J50+$E$4</f>
+        <f t="shared" si="9"/>
         <v>4.5122999999999998</v>
       </c>
       <c r="K51">
-        <f>K50+$F$4</f>
+        <f t="shared" si="10"/>
         <v>5.3722999999999992</v>
       </c>
       <c r="L51">
@@ -25774,11 +27528,11 @@
         <v>8</v>
       </c>
       <c r="J52">
-        <f>J51+$E$4</f>
+        <f t="shared" si="9"/>
         <v>5.1448</v>
       </c>
       <c r="K52">
-        <f>K51+$F$4</f>
+        <f t="shared" si="10"/>
         <v>6.0803999999999991</v>
       </c>
       <c r="L52">
@@ -25799,11 +27553,11 @@
         <v>9</v>
       </c>
       <c r="J53">
-        <f>J52+$E$4</f>
+        <f t="shared" si="9"/>
         <v>5.7773000000000003</v>
       </c>
       <c r="K53">
-        <f>K52+$F$4</f>
+        <f t="shared" si="10"/>
         <v>6.7884999999999991</v>
       </c>
       <c r="L53">
@@ -25824,11 +27578,11 @@
         <v>10</v>
       </c>
       <c r="J54">
-        <f>J53+$E$4</f>
+        <f t="shared" si="9"/>
         <v>6.4098000000000006</v>
       </c>
       <c r="K54">
-        <f>K53+$F$4</f>
+        <f t="shared" si="10"/>
         <v>7.496599999999999</v>
       </c>
       <c r="L54">
@@ -25849,11 +27603,11 @@
         <v>5</v>
       </c>
       <c r="J55">
-        <f>J32</f>
+        <f t="shared" ref="J55:K58" si="11">J32</f>
         <v>4.13</v>
       </c>
       <c r="K55">
-        <f>K32</f>
+        <f t="shared" si="11"/>
         <v>4.0850999999999997</v>
       </c>
       <c r="L55">
@@ -25874,11 +27628,11 @@
         <v>6</v>
       </c>
       <c r="J56">
-        <f>J33</f>
+        <f t="shared" si="11"/>
         <v>4.7625000000000002</v>
       </c>
       <c r="K56">
-        <f>K33</f>
+        <f t="shared" si="11"/>
         <v>4.7931999999999997</v>
       </c>
       <c r="L56">
@@ -25899,11 +27653,11 @@
         <v>7</v>
       </c>
       <c r="J57">
-        <f>J34</f>
+        <f t="shared" si="11"/>
         <v>5.3950000000000005</v>
       </c>
       <c r="K57">
-        <f>K34</f>
+        <f t="shared" si="11"/>
         <v>5.5012999999999996</v>
       </c>
       <c r="L57">
@@ -25924,11 +27678,11 @@
         <v>8</v>
       </c>
       <c r="J58">
-        <f>J35</f>
+        <f t="shared" si="11"/>
         <v>6.0275000000000007</v>
       </c>
       <c r="K58">
-        <f>K35</f>
+        <f t="shared" si="11"/>
         <v>6.2093999999999996</v>
       </c>
       <c r="L58">
@@ -25990,11 +27744,11 @@
         <v>4</v>
       </c>
       <c r="J61">
-        <f>J60+$E$4</f>
+        <f t="shared" ref="J61:J67" si="12">J60+$E$4</f>
         <v>2.5481999999999996</v>
       </c>
       <c r="K61">
-        <f>K60+$F$4</f>
+        <f t="shared" ref="K61:K67" si="13">K60+$F$4</f>
         <v>1.7988</v>
       </c>
       <c r="M61">
@@ -26012,11 +27766,11 @@
         <v>5</v>
       </c>
       <c r="J62">
-        <f>J61+$E$4</f>
+        <f t="shared" si="12"/>
         <v>3.1806999999999994</v>
       </c>
       <c r="K62">
-        <f>K61+$F$4</f>
+        <f t="shared" si="13"/>
         <v>2.5068999999999999</v>
       </c>
       <c r="M62">
@@ -26034,11 +27788,11 @@
         <v>6</v>
       </c>
       <c r="J63">
-        <f>J62+$E$4</f>
+        <f t="shared" si="12"/>
         <v>3.8131999999999993</v>
       </c>
       <c r="K63">
-        <f>K62+$F$4</f>
+        <f t="shared" si="13"/>
         <v>3.2149999999999999</v>
       </c>
       <c r="M63">
@@ -26056,11 +27810,11 @@
         <v>7</v>
       </c>
       <c r="J64">
-        <f>J63+$E$4</f>
+        <f t="shared" si="12"/>
         <v>4.4456999999999995</v>
       </c>
       <c r="K64">
-        <f>K63+$F$4</f>
+        <f t="shared" si="13"/>
         <v>3.9230999999999998</v>
       </c>
       <c r="M64">
@@ -26078,11 +27832,11 @@
         <v>8</v>
       </c>
       <c r="J65">
-        <f>J64+$E$4</f>
+        <f t="shared" si="12"/>
         <v>5.0781999999999998</v>
       </c>
       <c r="K65">
-        <f>K64+$F$4</f>
+        <f t="shared" si="13"/>
         <v>4.6311999999999998</v>
       </c>
       <c r="M65">
@@ -26100,11 +27854,11 @@
         <v>9</v>
       </c>
       <c r="J66">
-        <f>J65+$E$4</f>
+        <f t="shared" si="12"/>
         <v>5.7107000000000001</v>
       </c>
       <c r="K66">
-        <f>K65+$F$4</f>
+        <f t="shared" si="13"/>
         <v>5.3392999999999997</v>
       </c>
       <c r="M66">
@@ -26122,11 +27876,11 @@
         <v>10</v>
       </c>
       <c r="J67">
-        <f>J66+$E$4</f>
+        <f t="shared" si="12"/>
         <v>6.3432000000000004</v>
       </c>
       <c r="K67">
-        <f>K66+$F$4</f>
+        <f t="shared" si="13"/>
         <v>6.0473999999999997</v>
       </c>
       <c r="M67">
@@ -26216,11 +27970,11 @@
         <v>4</v>
       </c>
       <c r="J71">
-        <f>J70+$E$4</f>
+        <f t="shared" ref="J71:J77" si="14">J70+$E$4</f>
         <v>3.5581999999999998</v>
       </c>
       <c r="K71">
-        <f>K70+$F$4</f>
+        <f t="shared" ref="K71:K77" si="15">K70+$F$4</f>
         <v>3.4619999999999997</v>
       </c>
       <c r="L71">
@@ -26241,11 +27995,11 @@
         <v>5</v>
       </c>
       <c r="J72">
-        <f>J71+$E$4</f>
+        <f t="shared" si="14"/>
         <v>4.1906999999999996</v>
       </c>
       <c r="K72">
-        <f>K71+$F$4</f>
+        <f t="shared" si="15"/>
         <v>4.1700999999999997</v>
       </c>
       <c r="L72">
@@ -26266,11 +28020,11 @@
         <v>6</v>
       </c>
       <c r="J73">
-        <f>J72+$E$4</f>
+        <f t="shared" si="14"/>
         <v>4.8231999999999999</v>
       </c>
       <c r="K73">
-        <f>K72+$F$4</f>
+        <f t="shared" si="15"/>
         <v>4.8781999999999996</v>
       </c>
       <c r="L73">
@@ -26291,11 +28045,11 @@
         <v>7</v>
       </c>
       <c r="J74">
-        <f>J73+$E$4</f>
+        <f t="shared" si="14"/>
         <v>5.4557000000000002</v>
       </c>
       <c r="K74">
-        <f>K73+$F$4</f>
+        <f t="shared" si="15"/>
         <v>5.5862999999999996</v>
       </c>
       <c r="L74">
@@ -26316,11 +28070,11 @@
         <v>8</v>
       </c>
       <c r="J75">
-        <f>J74+$E$4</f>
+        <f t="shared" si="14"/>
         <v>6.0882000000000005</v>
       </c>
       <c r="K75">
-        <f>K74+$F$4</f>
+        <f t="shared" si="15"/>
         <v>6.2943999999999996</v>
       </c>
       <c r="L75">
@@ -26341,11 +28095,11 @@
         <v>9</v>
       </c>
       <c r="J76">
-        <f>J75+$E$4</f>
+        <f t="shared" si="14"/>
         <v>6.7207000000000008</v>
       </c>
       <c r="K76">
-        <f>K75+$F$4</f>
+        <f t="shared" si="15"/>
         <v>7.0024999999999995</v>
       </c>
       <c r="L76">
@@ -26366,11 +28120,11 @@
         <v>10</v>
       </c>
       <c r="J77">
-        <f>J76+$E$4</f>
+        <f t="shared" si="14"/>
         <v>7.3532000000000011</v>
       </c>
       <c r="K77">
-        <f>K76+$F$4</f>
+        <f t="shared" si="15"/>
         <v>7.7105999999999995</v>
       </c>
       <c r="L77">
@@ -26413,11 +28167,11 @@
         <v>4</v>
       </c>
       <c r="J79">
-        <f>J78+$E$4</f>
+        <f t="shared" ref="J79:J84" si="16">J78+$E$4</f>
         <v>2.9604999999999997</v>
       </c>
       <c r="K79">
-        <f>K78+$F$4</f>
+        <f t="shared" ref="K79:K84" si="17">K78+$F$4</f>
         <v>3.6959999999999997</v>
       </c>
       <c r="L79">
@@ -26438,11 +28192,11 @@
         <v>5</v>
       </c>
       <c r="J80">
-        <f>J79+$E$4</f>
+        <f t="shared" si="16"/>
         <v>3.5929999999999995</v>
       </c>
       <c r="K80">
-        <f>K79+$F$4</f>
+        <f t="shared" si="17"/>
         <v>4.4040999999999997</v>
       </c>
       <c r="L80">
@@ -26463,11 +28217,11 @@
         <v>6</v>
       </c>
       <c r="J81">
-        <f>J80+$E$4</f>
+        <f t="shared" si="16"/>
         <v>4.2254999999999994</v>
       </c>
       <c r="K81">
-        <f>K80+$F$4</f>
+        <f t="shared" si="17"/>
         <v>5.1121999999999996</v>
       </c>
       <c r="L81">
@@ -26488,11 +28242,11 @@
         <v>7</v>
       </c>
       <c r="J82">
-        <f>J81+$E$4</f>
+        <f t="shared" si="16"/>
         <v>4.8579999999999997</v>
       </c>
       <c r="K82">
-        <f>K81+$F$4</f>
+        <f t="shared" si="17"/>
         <v>5.8202999999999996</v>
       </c>
       <c r="L82">
@@ -26513,11 +28267,11 @@
         <v>8</v>
       </c>
       <c r="J83">
-        <f>J82+$E$4</f>
+        <f t="shared" si="16"/>
         <v>5.4904999999999999</v>
       </c>
       <c r="K83">
-        <f>K82+$F$4</f>
+        <f t="shared" si="17"/>
         <v>6.5283999999999995</v>
       </c>
       <c r="L83">
@@ -26538,11 +28292,11 @@
         <v>9</v>
       </c>
       <c r="J84">
-        <f>J83+$E$4</f>
+        <f t="shared" si="16"/>
         <v>6.1230000000000002</v>
       </c>
       <c r="K84">
-        <f>K83+$F$4</f>
+        <f t="shared" si="17"/>
         <v>7.2364999999999995</v>
       </c>
       <c r="L84">
@@ -26863,11 +28617,11 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <f>J93+$E$4</f>
+        <f t="shared" ref="J97:J102" si="18">J93+$E$4</f>
         <v>3.4974999999999996</v>
       </c>
       <c r="K97">
-        <f>K93+$F$4</f>
+        <f t="shared" ref="K97:K102" si="19">K93+$F$4</f>
         <v>3.3769999999999998</v>
       </c>
       <c r="L97">
@@ -26888,11 +28642,11 @@
         <v>2</v>
       </c>
       <c r="J98">
-        <f>J94+$E$4</f>
+        <f t="shared" si="18"/>
         <v>4.13</v>
       </c>
       <c r="K98">
-        <f>K94+$F$4</f>
+        <f t="shared" si="19"/>
         <v>4.4377999999999993</v>
       </c>
       <c r="L98">
@@ -26913,11 +28667,11 @@
         <v>3</v>
       </c>
       <c r="J99">
-        <f>J95+$E$4</f>
+        <f t="shared" si="18"/>
         <v>4.7625000000000002</v>
       </c>
       <c r="K99">
-        <f>K95+$F$4</f>
+        <f t="shared" si="19"/>
         <v>5.1458999999999993</v>
       </c>
       <c r="L99">
@@ -26938,11 +28692,11 @@
         <v>4</v>
       </c>
       <c r="J100">
-        <f>J96+$E$4</f>
+        <f t="shared" si="18"/>
         <v>5.3950000000000005</v>
       </c>
       <c r="K100">
-        <f>K96+$F$4</f>
+        <f t="shared" si="19"/>
         <v>5.8539999999999992</v>
       </c>
       <c r="L100">
@@ -26963,11 +28717,11 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <f>J97+$E$4</f>
+        <f t="shared" si="18"/>
         <v>4.13</v>
       </c>
       <c r="K101">
-        <f>K97+$F$4</f>
+        <f t="shared" si="19"/>
         <v>4.0850999999999997</v>
       </c>
       <c r="L101">
@@ -26988,11 +28742,11 @@
         <v>2</v>
       </c>
       <c r="J102">
-        <f>J98+$E$4</f>
+        <f t="shared" si="18"/>
         <v>4.7625000000000002</v>
       </c>
       <c r="K102">
-        <f>K98+$F$4</f>
+        <f t="shared" si="19"/>
         <v>5.1458999999999993</v>
       </c>
       <c r="L102">
@@ -27060,15 +28814,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A041A65-E3A3-4877-851F-6409FBDE0A92}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -27290,7 +29047,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -27301,7 +29058,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -27312,7 +29069,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -27323,7 +29080,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -27334,7 +29091,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -27345,7 +29102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -27356,7 +29113,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -27367,7 +29124,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -27389,7 +29146,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -27444,7 +29201,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -27455,7 +29212,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -27466,7 +29223,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -27477,7 +29234,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -27499,7 +29256,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -27510,7 +29267,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -27532,7 +29289,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -27543,7 +29300,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -27554,7 +29311,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -27565,7 +29322,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -27576,7 +29333,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -27587,7 +29344,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -27598,7 +29355,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -27609,7 +29366,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -27620,7 +29377,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -27631,7 +29388,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -27642,7 +29399,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -27653,7 +29410,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>56</v>
       </c>
@@ -27664,7 +29421,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>61</v>
       </c>
@@ -27675,7 +29432,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>84</v>
       </c>
@@ -27697,7 +29454,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>87</v>
       </c>
@@ -27719,7 +29476,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>90</v>
       </c>
@@ -27730,7 +29487,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>91</v>
       </c>
@@ -27741,7 +29498,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>93</v>
       </c>
@@ -27752,7 +29509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>98</v>
       </c>
@@ -27779,7 +29536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361C88B0-0B9F-4434-ABD1-7AFB55838A89}">
   <dimension ref="A1:A17"/>
   <sheetViews>
@@ -27810,57 +29567,57 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>237</v>
       </c>
